--- a/main_files/Raw.xlsx
+++ b/main_files/Raw.xlsx
@@ -350,7 +350,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy h:mm:ss"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -361,6 +361,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -394,38 +400,38 @@
   </cellStyleXfs>
   <cellXfs count="12">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
     <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -938,7 +944,7 @@
         <v>37</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="5">
         <v>3229</v>
       </c>
@@ -1022,7 +1028,7 @@
       <c r="AK2" s="3"/>
       <c r="AL2" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="5">
         <v>3230</v>
       </c>
@@ -1108,7 +1114,7 @@
         <v>61</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="5">
         <v>3231</v>
       </c>
@@ -1192,7 +1198,7 @@
       <c r="AK4" s="3"/>
       <c r="AL4" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="5">
         <v>3232</v>
       </c>
@@ -1274,7 +1280,7 @@
       <c r="AK5" s="3"/>
       <c r="AL5" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="5">
         <v>3233</v>
       </c>
@@ -1358,7 +1364,7 @@
       <c r="AK6" s="3"/>
       <c r="AL6" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="5">
         <v>3234</v>
       </c>
@@ -1442,7 +1448,7 @@
       <c r="AK7" s="3"/>
       <c r="AL7" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="5">
         <v>3235</v>
       </c>
@@ -1526,7 +1532,7 @@
       <c r="AK8" s="3"/>
       <c r="AL8" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="5">
         <v>3236</v>
       </c>
@@ -1610,7 +1616,7 @@
       <c r="AK9" s="3"/>
       <c r="AL9" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="5">
         <v>3229</v>
       </c>
@@ -1694,7 +1700,7 @@
       <c r="AK10" s="3"/>
       <c r="AL10" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="5">
         <v>3229</v>
       </c>
@@ -1778,7 +1784,7 @@
       <c r="AK11" s="3"/>
       <c r="AL11" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="5">
         <v>3229</v>
       </c>
@@ -1862,7 +1868,7 @@
       <c r="AK12" s="3"/>
       <c r="AL12" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="5">
         <v>3201</v>
       </c>
@@ -1948,7 +1954,7 @@
         <v>108</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="5">
         <v>3201</v>
       </c>
@@ -2034,7 +2040,7 @@
         <v>108</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="5">
         <v>3201</v>
       </c>
@@ -2120,7 +2126,7 @@
         <v>108</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="5">
         <v>3201</v>
       </c>
@@ -2206,7 +2212,7 @@
         <v>108</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="5">
         <v>3201</v>
       </c>
@@ -2292,7 +2298,7 @@
         <v>108</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="5">
         <v>3201</v>
       </c>
